--- a/docs/trim2/1_gestion_proyecto/2_levantamiento_informacion/1_recoleccion_informacion.xlsx
+++ b/docs/trim2/1_gestion_proyecto/2_levantamiento_informacion/1_recoleccion_informacion.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304670D2-6933-4726-BFC9-E7FF219DFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="712"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -22,14 +23,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Planeación!$A$1:$J$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Reportes Gráficos'!$A$1:$K$116</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Tabulación!$A$1:$K$116</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Técnicas!$A$1:$K$116</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Técnicas!$A$1:$K$112</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
   <si>
     <t>&lt;Nombre Proyecto&gt;</t>
   </si>
@@ -157,85 +158,161 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>Conocer con mayor profundidad la problemática del proceso</t>
-  </si>
-  <si>
     <t>Entrevista</t>
   </si>
   <si>
     <t>Cuestionario con preguntas base (Anexo 1)</t>
   </si>
   <si>
-    <t>Gerente Producción (Bob Constructor)</t>
-  </si>
-  <si>
-    <t>Juanita Preguntona</t>
-  </si>
-  <si>
-    <t>Grabadora
-Libreta de apuntes</t>
-  </si>
-  <si>
-    <t>Observación</t>
-  </si>
-  <si>
-    <t>Hoja de chequeo (Anexo 2)</t>
-  </si>
-  <si>
-    <t>Planta Producción Sede Funza</t>
-  </si>
-  <si>
-    <t>Mirón Calle</t>
-  </si>
-  <si>
-    <t>Videograbadora
-Libreta de apuntes</t>
-  </si>
-  <si>
     <t>Confirmar que se permita el uso de la videograbadora</t>
   </si>
   <si>
-    <t>Medir la percepción de los clientes internos sobre el proceso actual</t>
-  </si>
-  <si>
     <t>Encuesta</t>
   </si>
   <si>
-    <t>Cuestionario Encuesta (Anexo 3)</t>
-  </si>
-  <si>
-    <t>Muestra de 15 trabajadores de las 5 áreas de la empresa. Listado anexo 4</t>
-  </si>
-  <si>
-    <t>Entrevista grupal</t>
-  </si>
-  <si>
-    <t>Cuestionario Entrevista Grupo ( Anexo 5)</t>
-  </si>
-  <si>
-    <t>Grupo de 5 analistas, uno de cada área. Listado anexo 6</t>
-  </si>
-  <si>
-    <t>Identificar reglamentaciones respecto al proceso</t>
-  </si>
-  <si>
-    <t>Investigación</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>&lt;Nombre del Proyecto&gt;</t>
-  </si>
-  <si>
     <t>Planeación de la Recolección</t>
+  </si>
+  <si>
+    <t>A.P.C.R</t>
+  </si>
+  <si>
+    <t>Conocer con mayor profundidad la problemática del proceso de asignacion de parqueaderos y areas comunes</t>
+  </si>
+  <si>
+    <t>Medir la percepción de los propietarios  sobre los procesos actuales</t>
+  </si>
+  <si>
+    <t>Identificar reglamentaciones respecto a los procesos operativos</t>
+  </si>
+  <si>
+    <t>Cuestionario con preguntas base (Anexo 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador de conjunto residencial </t>
+  </si>
+  <si>
+    <t>Propietarios de propiedad horizontal</t>
+  </si>
+  <si>
+    <t>Camilo Villa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grabadora
+</t>
+  </si>
+  <si>
+    <t>Cuestionario de google</t>
+  </si>
+  <si>
+    <t>Métodos de recolección de datos primarios</t>
+  </si>
+  <si>
+    <t>Estos métodos se enfocan en conseguir datos primarios y se recolectan a través de la experiencia de primera mano, más que de información disponible generada en el pasado. Como resultado, aportan información específica, altamente auténtica y precisa.</t>
+  </si>
+  <si>
+    <t>Los métodos de recolección de datos primarios pueden dividirse en dos categorías: métodos cuantitativos y métodos cualitativos.</t>
+  </si>
+  <si>
+    <t>La entrevista es uno de los métodos cualitativos más utilizados en la investigación. Es por ello que abordaremos los diferentes tipos de entrevistas que puedes utilizar para obtener la información que necesitas. La entrevista de investigación es uno de los métodos de recopilación de datos informativos. Este método permite recoger y analizar varios elementos: la opinión, la actitud, los sentimientos, las representaciones de la persona entrevistada.</t>
+  </si>
+  <si>
+    <t>A diferencia de la encuesta, la entrevista establece una relación especial entre el investigador y la persona entrevistada. Se usa para probar hipótesis y para sacar a la luz otras nuevas.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>Entrevista semi estructurada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t xml:space="preserve">
+Otro de los tipos de entrevistas es la entrevista semi estructurada, la cual hace unas cuantas preguntas en un orden preestablecido, mientras que otras se hacen en orden aleatorio. Este tipo de entrevista consiste en preguntas específicas y generales. 
+El entrevistador hará preguntas más abiertas que permitan el debate. En algunos casos, el entrevistador prepara una lista de preguntas pero no las hace todas, o simplemente prepara una lista de temas. 
+A veces, el entrevistador comienza con preguntas en un orden fijo pero luego decide hacer preguntas de seguimiento basadas en las respuestas de los entrevistados. 
+Las entrevistas semiestructuradas tienen lo mejor de los mundos. Permiten ahorrar tiempo de entrevista y, al mismo tiempo, conocer las tendencias de comportamiento del candidato y sus habilidades de comunicación.</t>
+    </r>
+  </si>
+  <si>
+    <t>Una encuesta es una serie de preguntas dirigidas a los participantes en la investigación. Las encuestas pueden ser administradas en persona, por correo, teléfono o electrónicamente (como correo electrónico o en Internet). También pueden administrarse a un individuo o a un grupo. Las encuestas son utilizadas para tener información sobre muchas personas y pueden incluir opciónó múltiple o preguntas abiertas (como información demográfica, salud, conocimiento, opiniones, creencias, actitudes o habilidades)</t>
+  </si>
+  <si>
+    <t>Encuesta cualitativa</t>
+  </si>
+  <si>
+    <t>La encuesta cualitativa es un método de recolección de datos que permite utilizar preguntas abiertas y técnicas de análisis cualitativas para identificar temáticas, sentimientos, opiniones y otros aspectos de la experiencia de los encuestados.</t>
+  </si>
+  <si>
+    <t>Generalmente se utiliza en una fase inicial de una investigación mixta para tener una primera aproximación que pueda generar hipótesis</t>
+  </si>
+  <si>
+    <t>Cuantitativo</t>
+  </si>
+  <si>
+    <t>Los métodos cuantitativos en recolección de datos generalmente están orientados hacia el uso de herramientas estadísticas. Por ejemplo, las empresas o consultoras que realizan investigaciones de mercados pronostican la demanda sobre la base de datos históricos. </t>
+  </si>
+  <si>
+    <t>Cualitativo</t>
+  </si>
+  <si>
+    <t>Los métodos de recolección de datos cualitativos son muy útiles para conocer las experiencias, las opiniones, emociones y observaciones de las personas que estamos investigando.</t>
+  </si>
+  <si>
+    <t>Cuestionario</t>
+  </si>
+  <si>
+    <t>“SISTEMA DE INFORMACION PROPIEDAD HORIZONTAL</t>
+  </si>
+  <si>
+    <t>“A.P.C.R”</t>
+  </si>
+  <si>
+    <t>Cordial saludo, señor copropietario:</t>
+  </si>
+  <si>
+    <t>Con el fin de implementar un sistema de información web, realizaremos la encuesta anexa, ya que para el desarrollo de este proyecto es importante conocer sus observaciones y punto de vista.</t>
+  </si>
+  <si>
+    <t>1. ¿Está usted de acuerdo con implementar en el Conjunto Residencial, una página web del mismo, en donde además de dar a conocer nuestro sector nos permita indagar en varios servicios?</t>
+  </si>
+  <si>
+    <t>SI    _____</t>
+  </si>
+  <si>
+    <t>NO _____</t>
+  </si>
+  <si>
+    <t>PORQUE</t>
+  </si>
+  <si>
+    <t>2. Una de las funcionalidades de esta página, es que, a través de esta, usted pueda generar información sobre el estado actual de su deuda con la parte administrativa, adicional que una vez usted se acerque a cancelar le sea generado el recibo de pago en línea, ¿Qué opina usted?</t>
+  </si>
+  <si>
+    <t>3. Adicional, se implementará para control y proceso administrativos una base de datos para que el Administrador ingrese la información para apartar las zonas comunes como “salones comunales, zonas BBQ y canchas” ¿Estaría usted de acuerdo, de que la administración del conjunto empiece a implementar herramientas tecnológicas en su proceso?</t>
+  </si>
+  <si>
+    <t>4. Por otra, parte se permitirá que los copropietarios puedan realizar consultas en línea desde cualquier lugar a documentos como actas, acuerdos, comunicados de servicios sociales, entre otros. ¿Qué opina usted?</t>
+  </si>
+  <si>
+    <t>5. Igualmente se incluye un espacio, en el cual los copropietarios, van a poder solicitar el ingreso a visitantes con o sin vehículo llevando un registro en línea, adicional de que por este mismo medio pueda recibir la respuesta respectiva. ¿Estaría usted de acuerdo en este proceso?</t>
+  </si>
+  <si>
+    <t>1. Que tan demorado es la asignación del parqueadero para visitantes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +432,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -388,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -743,21 +837,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -790,21 +869,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -855,19 +919,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -898,21 +949,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -962,13 +998,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1044,13 +1210,13 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1058,107 +1224,258 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="42" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="43" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="44" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2"/>
+    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1185,7 +1502,13 @@
     <xdr:ext cx="720000" cy="720000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1233,7 +1556,13 @@
     <xdr:ext cx="432000" cy="432000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1281,7 +1610,13 @@
     <xdr:ext cx="900000" cy="900000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1314,6 +1649,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>870857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>529127</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBF63BD-947E-B9C3-5A56-627BB953D5EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="8205107"/>
+          <a:ext cx="4502413" cy="2866536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1329,7 +1714,13 @@
     <xdr:ext cx="900000" cy="900000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1377,7 +1768,13 @@
     <xdr:ext cx="900000" cy="900000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1425,7 +1822,13 @@
     <xdr:ext cx="900000" cy="900000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1473,7 +1876,13 @@
     <xdr:ext cx="900000" cy="900000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1585,6 +1994,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1620,6 +2046,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1795,10 +2238,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:IV87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
@@ -1822,55 +2267,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+    </row>
+    <row r="10" spans="1:11" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -1881,56 +2326,56 @@
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="7" t="s">
         <v>10</v>
       </c>
@@ -1940,13 +2385,13 @@
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="9" t="s">
         <v>13</v>
       </c>
@@ -1956,9 +2401,9 @@
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="10" t="s">
         <v>14</v>
       </c>
@@ -1988,10 +2433,10 @@
       <c r="C26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="58"/>
+      <c r="E26" s="56"/>
       <c r="F26" s="16" t="s">
         <v>20</v>
       </c>
@@ -2003,10 +2448,10 @@
       <c r="C27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="19" t="s">
         <v>11</v>
       </c>
@@ -2014,57 +2459,57 @@
     <row r="28" spans="1:16" ht="25.5" customHeight="1">
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:16" ht="25.5" customHeight="1">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:16" ht="25.5" customHeight="1">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -2078,52 +2523,52 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
       <c r="J41" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A45" s="25"/>
@@ -2439,11 +2884,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="D26:E26"/>
@@ -2458,18 +2910,11 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -2479,10 +2924,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:IS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
@@ -2501,57 +2948,57 @@
     <col min="254" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A4" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-    </row>
-    <row r="5" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A5" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-    </row>
-    <row r="6" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
+    <row r="3" spans="1:10" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" spans="1:10" s="44" customFormat="1" ht="20.25">
+      <c r="A4" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+    </row>
+    <row r="5" spans="1:10" s="44" customFormat="1" ht="20.25">
+      <c r="A5" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+    </row>
+    <row r="6" spans="1:10" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -2583,152 +3030,174 @@
       <c r="G9" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="82" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="36" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="D10" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="E10" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="67" t="s">
+    </row>
+    <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
+      <c r="B11" s="72"/>
+      <c r="C11" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="68"/>
-    </row>
-    <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="69"/>
-      <c r="C11" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="76"/>
+    </row>
+    <row r="12" spans="1:10" customFormat="1" ht="26.25">
+      <c r="B12" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="C12" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" customFormat="1" ht="51.75" customHeight="1">
+      <c r="B13" s="72"/>
+      <c r="C13" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="1:10" customFormat="1" ht="43.5" customHeight="1">
+      <c r="B14" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70" t="s">
+      <c r="C14" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" customFormat="1" ht="27" customHeight="1">
+      <c r="B15" s="72"/>
+      <c r="C15" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="71" t="s">
+      <c r="E15" s="45" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" customFormat="1" ht="51">
-      <c r="B12" s="69" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="70" t="s">
+      <c r="H15" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
-    </row>
-    <row r="13" spans="1:10" customFormat="1" ht="51.75" customHeight="1">
-      <c r="B13" s="69"/>
-      <c r="C13" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="71"/>
-    </row>
-    <row r="14" spans="1:10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B14" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
-    </row>
-    <row r="15" spans="1:10" customFormat="1" ht="27" customHeight="1">
-      <c r="B15" s="69"/>
-      <c r="C15" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="73"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:10" customFormat="1" ht="15">
-      <c r="B16" s="74"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:253" customFormat="1" ht="15">
-      <c r="B17" s="74"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:253" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="29"/>
@@ -2887,10 +3356,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
@@ -2899,7 +3370,7 @@
     <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" style="1" customWidth="1"/>
     <col min="7" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
@@ -2911,60 +3382,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
+      <c r="A7" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
-    </row>
-    <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="10" spans="1:11" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -2972,7 +3443,9 @@
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="33"/>
+      <c r="B15" s="87" t="s">
+        <v>57</v>
+      </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="29"/>
@@ -2980,158 +3453,206 @@
       <c r="G15" s="24"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="37.5" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="24"/>
+      <c r="B16" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="115"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="B17" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="85"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B19" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="33"/>
+      <c r="B21" s="87" t="s">
+        <v>67</v>
+      </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B22" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1">
       <c r="A23" s="29"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="29"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="104"/>
       <c r="D24" s="24"/>
+      <c r="F24" s="105" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="205.5" customHeight="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="89"/>
       <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="F26" s="86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="60.75" customHeight="1">
       <c r="A27" s="29"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="91"/>
       <c r="D27" s="24"/>
+      <c r="F27" s="106"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="24"/>
+      <c r="F28" s="106"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-    </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="24"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="102" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
-    </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="33"/>
+      <c r="F30" s="86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="77.25" customHeight="1">
+      <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
+      <c r="F31" s="107" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="24"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
-      <c r="J32" s="34"/>
-    </row>
-    <row r="33" spans="2:10" s="1" customFormat="1">
-      <c r="B33" s="33"/>
+    </row>
+    <row r="33" spans="2:4" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
-      <c r="J33" s="34"/>
-    </row>
-    <row r="34" spans="2:10" s="1" customFormat="1">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
+    </row>
+    <row r="34" spans="2:4" s="1" customFormat="1">
+      <c r="B34" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="100"/>
       <c r="D34" s="24"/>
     </row>
-    <row r="35" spans="2:10" s="1" customFormat="1">
-      <c r="B35" s="33"/>
-      <c r="C35" s="24"/>
+    <row r="35" spans="2:4" s="1" customFormat="1" ht="277.5" customHeight="1">
+      <c r="B35" s="101"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="24"/>
     </row>
-    <row r="36" spans="2:10" s="1" customFormat="1">
-      <c r="B36" s="24"/>
+    <row r="36" spans="2:4" s="1" customFormat="1">
+      <c r="B36" s="26"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
     </row>
-    <row r="37" spans="2:10" s="1" customFormat="1">
-      <c r="B37" s="33"/>
-      <c r="C37" s="24"/>
+    <row r="37" spans="2:4" s="1" customFormat="1">
+      <c r="C37" s="26"/>
       <c r="D37" s="24"/>
     </row>
-    <row r="38" spans="2:10" s="1" customFormat="1">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-    </row>
-    <row r="39" spans="2:10" s="1" customFormat="1">
-      <c r="B39" s="33"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-    </row>
-    <row r="40" spans="2:10" s="1" customFormat="1">
-      <c r="B40" s="26"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="2:10" s="1" customFormat="1">
-      <c r="C41" s="26"/>
-      <c r="D41" s="24"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="16">
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B16:G16"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A8:K8"/>
@@ -3147,7 +3668,396 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:IW50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
+    <col min="13" max="256" width="12" style="1" customWidth="1"/>
+    <col min="257" max="257" width="12.5703125" style="2" customWidth="1"/>
+    <col min="258" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:257">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="5" spans="1:257">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+    </row>
+    <row r="6" spans="1:257">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+    </row>
+    <row r="7" spans="1:257" ht="30">
+      <c r="A7" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
+    </row>
+    <row r="8" spans="1:257" ht="30">
+      <c r="A8" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="10" spans="1:257" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+    </row>
+    <row r="11" spans="1:257" ht="15" thickTop="1"/>
+    <row r="12" spans="1:257">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="118"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="133"/>
+      <c r="I15" s="134"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="IW15" s="2"/>
+    </row>
+    <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="24"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="IW16" s="2"/>
+    </row>
+    <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="120"/>
+      <c r="G17" s="24"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="IW17" s="2"/>
+    </row>
+    <row r="18" spans="1:257" s="1" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="G18" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="IW18" s="2"/>
+    </row>
+    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
+      <c r="IW19" s="2"/>
+    </row>
+    <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="IW20" s="2"/>
+    </row>
+    <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="IW21" s="2"/>
+    </row>
+    <row r="22" spans="1:257" s="1" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
+      <c r="IW22" s="2"/>
+    </row>
+    <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="123"/>
+      <c r="IW23" s="2"/>
+    </row>
+    <row r="24" spans="1:257" s="1" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="126" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="126"/>
+      <c r="D24" s="127"/>
+      <c r="IW24" s="2"/>
+    </row>
+    <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="122"/>
+      <c r="D25" s="123"/>
+      <c r="IW25" s="2"/>
+    </row>
+    <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
+      <c r="IW26" s="2"/>
+    </row>
+    <row r="27" spans="1:257" s="1" customFormat="1" ht="45" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="122"/>
+      <c r="D27" s="123"/>
+      <c r="IW27" s="2"/>
+    </row>
+    <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B28" s="121"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
+      <c r="IW28" s="2"/>
+    </row>
+    <row r="29" spans="1:257" s="1" customFormat="1" ht="46.5" customHeight="1">
+      <c r="B29" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
+      <c r="IW29" s="2"/>
+    </row>
+    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B30" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="IW30" s="2"/>
+    </row>
+    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B31" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="IW31" s="2"/>
+    </row>
+    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B32" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="J32" s="34"/>
+      <c r="IW32" s="2"/>
+    </row>
+    <row r="33" spans="2:257" s="1" customFormat="1">
+      <c r="B33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="J33" s="34"/>
+      <c r="IW33" s="2"/>
+    </row>
+    <row r="34" spans="2:257" s="1" customFormat="1">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="IW34" s="2"/>
+    </row>
+    <row r="35" spans="2:257" s="1" customFormat="1" ht="81" customHeight="1">
+      <c r="B35" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="130"/>
+      <c r="D35" s="131"/>
+      <c r="IW35" s="2"/>
+    </row>
+    <row r="36" spans="2:257" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B36" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="IW36" s="2"/>
+    </row>
+    <row r="37" spans="2:257" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B37" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="IW37" s="2"/>
+    </row>
+    <row r="38" spans="2:257" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B38" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="IW38" s="2"/>
+    </row>
+    <row r="39" spans="2:257" s="1" customFormat="1">
+      <c r="B39" s="33"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="IW39" s="2"/>
+    </row>
+    <row r="40" spans="2:257" s="1" customFormat="1">
+      <c r="B40" s="26"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="IW40" s="2"/>
+    </row>
+    <row r="41" spans="2:257" s="1" customFormat="1" ht="59.25" customHeight="1">
+      <c r="B41" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="130"/>
+      <c r="D41" s="131"/>
+      <c r="IW41" s="2"/>
+    </row>
+    <row r="42" spans="2:257" ht="19.5" customHeight="1">
+      <c r="B42" s="86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="2:257" ht="19.5" customHeight="1">
+      <c r="B43" s="86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:257" ht="19.5" customHeight="1">
+      <c r="B44" s="86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:257" ht="60" customHeight="1">
+      <c r="B47" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="130"/>
+      <c r="D47" s="131"/>
+    </row>
+    <row r="48" spans="2:257" ht="23.25" customHeight="1">
+      <c r="B48" s="86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="21.75" customHeight="1">
+      <c r="B49" s="86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="23.25" customHeight="1">
+      <c r="B50" s="86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
+  <pageSetup scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:IW41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -3174,60 +4084,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
-    </row>
-    <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="A8" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="10" spans="1:257" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -3440,8 +4350,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:IW41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -3468,354 +4378,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
-    </row>
-    <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-    </row>
-    <row r="11" spans="1:257" ht="15" thickTop="1"/>
-    <row r="12" spans="1:257">
-      <c r="F12" s="4"/>
-    </row>
-    <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="IW15" s="2"/>
-    </row>
-    <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="24"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="IW16" s="2"/>
-    </row>
-    <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="IW17" s="2"/>
-    </row>
-    <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="IW18" s="2"/>
-    </row>
-    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="IW19" s="2"/>
-    </row>
-    <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="IW20" s="2"/>
-    </row>
-    <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="IW21" s="2"/>
-    </row>
-    <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="IW22" s="2"/>
-    </row>
-    <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="IW23" s="2"/>
-    </row>
-    <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="IW24" s="2"/>
-    </row>
-    <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="IW25" s="2"/>
-    </row>
-    <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="IW26" s="2"/>
-    </row>
-    <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="IW27" s="2"/>
-    </row>
-    <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="IW28" s="2"/>
-    </row>
-    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="IW29" s="2"/>
-    </row>
-    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="IW30" s="2"/>
-    </row>
-    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="IW31" s="2"/>
-    </row>
-    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="J32" s="34"/>
-      <c r="IW32" s="2"/>
-    </row>
-    <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="33"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="J33" s="34"/>
-      <c r="IW33" s="2"/>
-    </row>
-    <row r="34" spans="2:257" s="1" customFormat="1">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="IW34" s="2"/>
-    </row>
-    <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="33"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="IW35" s="2"/>
-    </row>
-    <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="IW36" s="2"/>
-    </row>
-    <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="33"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="IW37" s="2"/>
-    </row>
-    <row r="38" spans="2:257" s="1" customFormat="1">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="IW38" s="2"/>
-    </row>
-    <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="33"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="IW39" s="2"/>
-    </row>
-    <row r="40" spans="2:257" s="1" customFormat="1">
-      <c r="B40" s="26"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="IW40" s="2"/>
-    </row>
-    <row r="41" spans="2:257" s="1" customFormat="1">
-      <c r="C41" s="26"/>
-      <c r="D41" s="24"/>
-      <c r="IW41" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
-  <pageSetup scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:IW41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
-    <col min="13" max="256" width="12" style="1" customWidth="1"/>
-    <col min="257" max="257" width="12.5703125" style="2" customWidth="1"/>
-    <col min="258" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:257">
-      <c r="F2" s="2"/>
-    </row>
-    <row r="5" spans="1:257">
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:257">
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-    </row>
-    <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
-    </row>
-    <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="10" spans="1:257" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4029,7 +4645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IV41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -4073,56 +4689,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -4132,18 +4748,18 @@
       <c r="IU9" s="1"/>
       <c r="IV9" s="1"/>
     </row>
-    <row r="10" spans="1:256" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+    <row r="10" spans="1:256" s="43" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>

--- a/docs/trim2/1_gestion_proyecto/2_levantamiento_informacion/1_recoleccion_informacion.xlsx
+++ b/docs/trim2/1_gestion_proyecto/2_levantamiento_informacion/1_recoleccion_informacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21690" windowHeight="12525" tabRatio="712" activeTab="5"/>
+    <workbookView windowWidth="26715" windowHeight="12525" tabRatio="712" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>Autor</t>
   </si>
   <si>
-    <t>Torres del 20 de Julio</t>
+    <t>Conjunto Residencial Urapan</t>
   </si>
   <si>
     <t>Versión / Edición</t>
@@ -479,11 +479,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="54">
     <font>
@@ -730,6 +730,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -738,19 +753,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,24 +776,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -801,10 +799,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -815,6 +813,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -822,31 +836,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,14 +852,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,19 +907,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,6 +932,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +985,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,13 +1033,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,97 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2242,8 +2242,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2263,11 +2263,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2297,123 +2321,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="93" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="92" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="91" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="93" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="92" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="89" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="88" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="32" borderId="88" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2422,143 +2422,143 @@
     <xf numFmtId="0" fontId="42" fillId="10" borderId="88" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="89" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="90" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="91" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="87" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="91" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="86" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="86" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2576,7 +2576,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -2586,7 +2586,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -2605,7 +2605,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -2615,40 +2615,40 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2666,24 +2666,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2699,252 +2699,252 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2953,7 +2953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2962,7 +2962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3001,8 +3001,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3023,127 +3023,127 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="67" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="75" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="79" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="80" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="4" borderId="66" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="4" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="82" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="82" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="4" borderId="67" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="4" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="82" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="82" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="4" borderId="72" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="4" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="83" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="83" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="84" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="85" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -11492,8 +11492,8 @@
   <sheetPr/>
   <dimension ref="A2:P87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -12609,7 +12609,7 @@
   <sheetPr/>
   <dimension ref="A2:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:G20"/>
     </sheetView>
   </sheetViews>
@@ -12925,7 +12925,7 @@
   <sheetPr/>
   <dimension ref="A5:IV59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -13625,7 +13625,7 @@
   <sheetPr/>
   <dimension ref="A2:IW58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -14958,7 +14958,7 @@
   <sheetPr/>
   <dimension ref="A2:IW284"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A204" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J250" sqref="J250"/>
     </sheetView>
   </sheetViews>
@@ -18987,7 +18987,7 @@
   <sheetPr/>
   <dimension ref="A1:IV58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
